--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Trait(GroupName,CategoryName)</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>Newtonsoft.Json</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.HttpsPolicy</t>
+  </si>
+  <si>
+    <t>Microsoft.AspNetCore.Diagnostics</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +744,16 @@
         <v>39</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
